--- a/medicine/Pharmacie/Pimécrolimus/Pimécrolimus.xlsx
+++ b/medicine/Pharmacie/Pimécrolimus/Pimécrolimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pim%C3%A9crolimus</t>
+          <t>Pimécrolimus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le pimécrolimus, est vendu sous la marque Elidel.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pim%C3%A9crolimus</t>
+          <t>Pimécrolimus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter la dermatite atopique  et le psoriasis[1],[2]. Il s'agit d'un traitement de deuxième intention après les corticoïdes topiques[1]. Il s'applique sur la peau sous forme de crème[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter la dermatite atopique  et le psoriasis,. Il s'agit d'un traitement de deuxième intention après les corticoïdes topiques. Il s'applique sur la peau sous forme de crème.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pim%C3%A9crolimus</t>
+          <t>Pimécrolimus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent une réaction cutanée, des maux de tête et de la toux; d'autres préoccupations peuvent inclure le cancer et les infections[1]. L'utilisation n'est pas recommandée pendant la grossesse[2]. Il s'agit d'un inhibiteur de la calcineurine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent une réaction cutanée, des maux de tête et de la toux; d'autres préoccupations peuvent inclure le cancer et les infections. L'utilisation n'est pas recommandée pendant la grossesse. Il s'agit d'un inhibiteur de la calcineurine.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pim%C3%A9crolimus</t>
+          <t>Pimécrolimus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2001[1]. Au Royaume-Uni, un tube de 30 grammes coûte au NHS environ 20 livre sterling à partir de 2021[2]. Ce montant aux États-Unis est d'environ 70 dollars américain[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical aux États-Unis en 2001. Au Royaume-Uni, un tube de 30 grammes coûte au NHS environ 20 livre sterling à partir de 2021. Ce montant aux États-Unis est d'environ 70 dollars américain.
 </t>
         </is>
       </c>
